--- a/LR2/LR2.xlsx
+++ b/LR2/LR2.xlsx
@@ -8,108 +8,149 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Desktop\Уник\МОптим\LR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C66CFD-F16D-4BEC-84D2-9F4D666B66F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF272A9-F126-4AD2-ABDB-67EC54DCA301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="699" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="699" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Задача 2 часть 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Отчет о результатах 2 ч1" sheetId="4" r:id="rId3"/>
-    <sheet name="Отчет об устойчивости 2 ч1" sheetId="5" r:id="rId4"/>
-    <sheet name="Отчет о пределах 2 ч1" sheetId="6" r:id="rId5"/>
-    <sheet name="Задача 2 часть 2" sheetId="3" r:id="rId6"/>
-    <sheet name="Отчет о результатах 2 ч2" sheetId="7" r:id="rId7"/>
-    <sheet name="Отчет об устойчивости 2 ч2" sheetId="8" r:id="rId8"/>
-    <sheet name="Отчет о пределах 2 ч2" sheetId="9" r:id="rId9"/>
+    <sheet name="Отчет о результатах 1 ч1" sheetId="10" r:id="rId2"/>
+    <sheet name="Отчет об устойчивости 1 ч1" sheetId="11" r:id="rId3"/>
+    <sheet name="Отчет о пределах 1 ч1" sheetId="12" r:id="rId4"/>
+    <sheet name="Отчет о результатах 1 ч2" sheetId="13" r:id="rId5"/>
+    <sheet name="Отчет об устойчивости 1 ч2" sheetId="14" r:id="rId6"/>
+    <sheet name="Отчет о пределах 1 ч2" sheetId="15" r:id="rId7"/>
+    <sheet name="Задача 2 часть 1" sheetId="2" r:id="rId8"/>
+    <sheet name="Отчет о результатах 2 ч1" sheetId="4" r:id="rId9"/>
+    <sheet name="Отчет об устойчивости 2 ч1" sheetId="5" r:id="rId10"/>
+    <sheet name="Отчет о пределах 2 ч1" sheetId="6" r:id="rId11"/>
+    <sheet name="Задача 2 часть 2" sheetId="3" r:id="rId12"/>
+    <sheet name="Отчет о результатах 2 ч2" sheetId="7" r:id="rId13"/>
+    <sheet name="Отчет об устойчивости 2 ч2" sheetId="8" r:id="rId14"/>
+    <sheet name="Отчет о пределах 2 ч2" sheetId="9" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Задача 2 часть 1'!$E$26:$I$29</definedName>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'Задача 2 часть 2'!$F$16:$J$19</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Задача 2 часть 1'!$D$26:$D$29</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Задача 2 часть 2'!$F$16:$J$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Задача 2 часть 1'!$E$25:$I$25</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Задача 2 часть 2'!$F$17</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Задача 2 часть 1'!$E$26:$I$29</definedName>
-    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Задача 2 часть 2'!$F$20:$J$20</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Задача 2 часть 1'!$J$28</definedName>
-    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'Задача 2 часть 2'!$G$18</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Задача 2 часть 1'!$J$28</definedName>
-    <definedName name="solver_lhs5" localSheetId="5" hidden="1">'Задача 2 часть 2'!$K$16:$K$19</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">5</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Задача 2 часть 1'!$C$23</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'Задача 2 часть 2'!$D$13</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel5" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Задача 2 часть 1'!$J$26:$J$29</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Задача 2 часть 1'!$E$30:$I$30</definedName>
-    <definedName name="solver_rhs2" localSheetId="5" hidden="1">25</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="5" hidden="1">'Задача 2 часть 2'!$F$15:$J$15</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Задача 2 часть 1'!$D$28</definedName>
-    <definedName name="solver_rhs4" localSheetId="5" hidden="1">20</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Задача 2 часть 1'!$D$28</definedName>
-    <definedName name="solver_rhs5" localSheetId="5" hidden="1">'Задача 2 часть 2'!$E$16:$E$19</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Задача 1'!$K$95:$L$95</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'Задача 2 часть 1'!$E$26:$I$29</definedName>
+    <definedName name="solver_adj" localSheetId="11" hidden="1">'Задача 2 часть 2'!$F$16:$J$19</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="11" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Задача 1'!$N$100</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'Задача 2 часть 1'!$D$26:$D$29</definedName>
+    <definedName name="solver_lhs1" localSheetId="11" hidden="1">'Задача 2 часть 2'!$F$16:$J$19</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Задача 1'!$N$99</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'Задача 2 часть 1'!$E$25:$I$25</definedName>
+    <definedName name="solver_lhs2" localSheetId="11" hidden="1">'Задача 2 часть 2'!$F$17</definedName>
+    <definedName name="solver_lhs3" localSheetId="7" hidden="1">'Задача 2 часть 1'!$E$26:$I$29</definedName>
+    <definedName name="solver_lhs3" localSheetId="11" hidden="1">'Задача 2 часть 2'!$F$20:$J$20</definedName>
+    <definedName name="solver_lhs4" localSheetId="7" hidden="1">'Задача 2 часть 1'!$J$28</definedName>
+    <definedName name="solver_lhs4" localSheetId="11" hidden="1">'Задача 2 часть 2'!$G$18</definedName>
+    <definedName name="solver_lhs5" localSheetId="7" hidden="1">'Задача 2 часть 1'!$J$28</definedName>
+    <definedName name="solver_lhs5" localSheetId="11" hidden="1">'Задача 2 часть 2'!$K$16:$K$19</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="11" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="11" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="11" hidden="1">5</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Задача 1'!$N$96</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'Задача 2 часть 1'!$C$23</definedName>
+    <definedName name="solver_opt" localSheetId="11" hidden="1">'Задача 2 часть 2'!$D$13</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="11" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="11" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="11" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Задача 1'!$P$100</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">'Задача 2 часть 1'!$J$26:$J$29</definedName>
+    <definedName name="solver_rhs1" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Задача 1'!$P$99</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">'Задача 2 часть 1'!$E$30:$I$30</definedName>
+    <definedName name="solver_rhs2" localSheetId="11" hidden="1">25</definedName>
+    <definedName name="solver_rhs3" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="11" hidden="1">'Задача 2 часть 2'!$F$15:$J$15</definedName>
+    <definedName name="solver_rhs4" localSheetId="7" hidden="1">'Задача 2 часть 1'!$D$28</definedName>
+    <definedName name="solver_rhs4" localSheetId="11" hidden="1">20</definedName>
+    <definedName name="solver_rhs5" localSheetId="7" hidden="1">'Задача 2 часть 1'!$D$28</definedName>
+    <definedName name="solver_rhs5" localSheetId="11" hidden="1">'Задача 2 часть 2'!$E$16:$E$19</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="11" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="11" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="11" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -130,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="304">
   <si>
     <t>Z = 8 * x1 + 5 * x2 -&gt;max</t>
   </si>
@@ -755,12 +796,360 @@
   <si>
     <t>Решение транспортной задачи без ограничений с помощью поиска решений</t>
   </si>
+  <si>
+    <t>Графическое решение:</t>
+  </si>
+  <si>
+    <t>Стоимость машины</t>
+  </si>
+  <si>
+    <t>Занимаемая площадь</t>
+  </si>
+  <si>
+    <t>М1</t>
+  </si>
+  <si>
+    <t>М2</t>
+  </si>
+  <si>
+    <t>Выделенные средства</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Коэф. целевой функции</t>
+  </si>
+  <si>
+    <t>Переменные</t>
+  </si>
+  <si>
+    <t>знак неравенства</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>-&gt;max</t>
+  </si>
+  <si>
+    <t>x1 (&gt;=0)</t>
+  </si>
+  <si>
+    <t>x2 (&gt;=0)</t>
+  </si>
+  <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>f(y) =30*y1 + 45*y2 -&gt;min</t>
+  </si>
+  <si>
+    <t>Система:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>6*y1 + 9*y2 &gt;=8</t>
+  </si>
+  <si>
+    <t>3*y1 + 4*y2 &gt;= 5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yi&gt;=0, i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>e [1, 2]</t>
+    </r>
+  </si>
+  <si>
+    <t>Z(x)max = 8*0 + 5*10 = 50</t>
+  </si>
+  <si>
+    <t>f(y)min = 8*0 + 5*0 = 0</t>
+  </si>
+  <si>
+    <t>Решение симплекс-методом:</t>
+  </si>
+  <si>
+    <t>Ограничения в каноническом виде:</t>
+  </si>
+  <si>
+    <t>6*x1 + 3*x2 + x3 = 30</t>
+  </si>
+  <si>
+    <t>9*x1 + 4*x2 + x4 = 45</t>
+  </si>
+  <si>
+    <t>Начальная симплекс-таблица:</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>базис</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Расчет дельт:</t>
+  </si>
+  <si>
+    <t>Δ1 = C3·a11 + C4·a21 - C1 = 0·6 + 0·9 - 8 = -8</t>
+  </si>
+  <si>
+    <t>Δ2 = C3·a12 + C4·a22 - C2 = 0·3 + 0·4 - 5 = -5</t>
+  </si>
+  <si>
+    <t>Δ3 = C3·a13 + C4·a23 - C3 = 0·1 + 0·0 - 0 = 0</t>
+  </si>
+  <si>
+    <t>Δ4 = C3·a14 + C4·a24 - C4 = 0·0 + 0·1 - 0 = 0</t>
+  </si>
+  <si>
+    <t>Δb = C3·b1 + C4·b2 - C5 = 0·30 + 0·45 - 0 = 0</t>
+  </si>
+  <si>
+    <t>Симплекс-таблица с дельтами:</t>
+  </si>
+  <si>
+    <t>Δ</t>
+  </si>
+  <si>
+    <t>План не оптимален, т.к. в таблице присутствуют отрицательные дельты</t>
+  </si>
+  <si>
+    <t>Итерация 0</t>
+  </si>
+  <si>
+    <t>Симплексные  отношения (Q)</t>
+  </si>
+  <si>
+    <t>Итерация 1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-3/2</t>
+  </si>
+  <si>
+    <t>4/3</t>
+  </si>
+  <si>
+    <t>Итерация 2</t>
+  </si>
+  <si>
+    <t>-4/3</t>
+  </si>
+  <si>
+    <t>5/3</t>
+  </si>
+  <si>
+    <t>Текущий план: x = [0, 10, 0, 5]</t>
+  </si>
+  <si>
+    <t>Z(x)max = 8*0 + 5*10 + 0*0 + 0*5 = 50</t>
+  </si>
+  <si>
+    <t>F(y)min = 30*y1 + 45*y2</t>
+  </si>
+  <si>
+    <t>Оптимальный план двойственной задачи:</t>
+  </si>
+  <si>
+    <t>y1 = 5/3</t>
+  </si>
+  <si>
+    <t>y2 = 0</t>
+  </si>
+  <si>
+    <t>Z(y) = 30 * (5/3) + 45*0</t>
+  </si>
+  <si>
+    <t>Ресурс 1 наиболее дефицитный</t>
+  </si>
+  <si>
+    <t>Определение дефицитных и избыточных ресурсов:</t>
+  </si>
+  <si>
+    <t>6*0 + 3*10 = 30 = 30</t>
+  </si>
+  <si>
+    <t>Израсходован полностью, дефицитный ресурс</t>
+  </si>
+  <si>
+    <t>9*0 + 4*10 = 40 &lt; 45</t>
+  </si>
+  <si>
+    <t>Израсходован не полностью (резерв в размере 5 ед.). Оценка данного ресурса в оптимальном плане y2 = 0, т.к. он не является дефицитным</t>
+  </si>
+  <si>
+    <t>Поиск решений:</t>
+  </si>
+  <si>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>х1</t>
+  </si>
+  <si>
+    <t>х2</t>
+  </si>
+  <si>
+    <t>знач</t>
+  </si>
+  <si>
+    <t>ограничения</t>
+  </si>
+  <si>
+    <t>вид</t>
+  </si>
+  <si>
+    <t>знак</t>
+  </si>
+  <si>
+    <t>площадь</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>стоимость</t>
+  </si>
+  <si>
+    <t>значение целевой функции</t>
+  </si>
+  <si>
+    <t>Лист: [LR2.xlsx]Задача 1</t>
+  </si>
+  <si>
+    <t>Отчет создан: 06.12.2022 21:32:04</t>
+  </si>
+  <si>
+    <t>Число итераций: 1 Число подзадач: 0</t>
+  </si>
+  <si>
+    <t>Ячейка целевой функции (Максимум)</t>
+  </si>
+  <si>
+    <t>$E$96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">коэф.цел.ф  </t>
+  </si>
+  <si>
+    <t>$B$95</t>
+  </si>
+  <si>
+    <t>знач х1</t>
+  </si>
+  <si>
+    <t>$C$95</t>
+  </si>
+  <si>
+    <t>знач х2</t>
+  </si>
+  <si>
+    <t>$E$100</t>
+  </si>
+  <si>
+    <t>площадь лев.ч</t>
+  </si>
+  <si>
+    <t>$E$100&lt;=$G$100</t>
+  </si>
+  <si>
+    <t>$E$99</t>
+  </si>
+  <si>
+    <t>стоимость лев.ч</t>
+  </si>
+  <si>
+    <t>$E$99&lt;=$G$99</t>
+  </si>
+  <si>
+    <t>Отчет создан: 06.12.2022 21:33:45</t>
+  </si>
+  <si>
+    <t>Время решения: 0,016 секунд.</t>
+  </si>
+  <si>
+    <t>Число итераций: 2 Число подзадач: 0</t>
+  </si>
+  <si>
+    <t>$N$96</t>
+  </si>
+  <si>
+    <t>$K$95</t>
+  </si>
+  <si>
+    <t>знач y1</t>
+  </si>
+  <si>
+    <t>$L$95</t>
+  </si>
+  <si>
+    <t>знач y2</t>
+  </si>
+  <si>
+    <t>$N$100</t>
+  </si>
+  <si>
+    <t>$N$100&gt;=$P$100</t>
+  </si>
+  <si>
+    <t>$N$99</t>
+  </si>
+  <si>
+    <t>$N$99&gt;=$P$99</t>
+  </si>
+  <si>
+    <t>#Н/Д</t>
+  </si>
+  <si>
+    <t>правая часть</t>
+  </si>
+  <si>
+    <t>левая часть</t>
+  </si>
+  <si>
+    <t>коэф.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,8 +1196,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,8 +1232,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -988,11 +1411,224 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1034,14 +1670,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1076,6 +1712,178 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1097,16 +1905,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>8619</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104323</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>570092</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>521608</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>121872</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>491528</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31634</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1129,8 +1937,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9805762" y="4923519"/>
-          <a:ext cx="7860846" cy="1945228"/>
+          <a:off x="9974776" y="395085"/>
+          <a:ext cx="7852252" cy="1922549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27571</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50132</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>137028</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826DCE36-9A53-4D22-B4CD-29EF5A0CE94C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27571" y="2339473"/>
+          <a:ext cx="4634666" cy="6179555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1503,1437 +2355,1349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="36">
+        <v>8</v>
+      </c>
+      <c r="M3" s="36">
+        <v>5</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="36">
+        <v>30</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="4">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="36">
+        <v>45</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="J5" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="4">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="36"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="4">
+        <v>6</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="O7" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="J8" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="36"/>
+      <c r="L8" s="4">
+        <v>9</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="O8" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="J10" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
         <v>4</v>
       </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="J12" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+    </row>
+    <row r="50" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="G52" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="N52" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="O52" s="46"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="G53" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H53" s="4">
+        <v>8</v>
+      </c>
+      <c r="I53" s="4">
+        <v>5</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="G54" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="N54" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G55" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H55" s="4">
+        <v>6</v>
+      </c>
+      <c r="I55" s="4">
+        <v>3</v>
+      </c>
+      <c r="J55" s="4">
+        <v>1</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>30</v>
+      </c>
+      <c r="N55" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G56" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H56" s="4">
+        <v>9</v>
+      </c>
+      <c r="I56" s="4">
+        <v>4</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1</v>
+      </c>
+      <c r="L56" s="4">
+        <v>45</v>
+      </c>
+      <c r="N56" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N57" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="Q59" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="R59" s="39"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" s="4">
+        <v>8</v>
+      </c>
+      <c r="C60" s="4">
+        <v>5</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="J60" s="57"/>
+      <c r="K60" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="L60" s="58">
+        <v>8</v>
+      </c>
+      <c r="M60" s="58">
+        <v>5</v>
+      </c>
+      <c r="N60" s="58">
+        <v>0</v>
+      </c>
+      <c r="O60" s="58">
+        <v>0</v>
+      </c>
+      <c r="P60" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="59"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I61" s="60"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q61" s="61"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="4">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4">
+        <v>3</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>30</v>
+      </c>
+      <c r="I62" s="60"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L62" s="50">
+        <v>6</v>
+      </c>
+      <c r="M62" s="51">
+        <v>3</v>
+      </c>
+      <c r="N62" s="51">
+        <v>1</v>
+      </c>
+      <c r="O62" s="51">
+        <v>0</v>
+      </c>
+      <c r="P62" s="51">
+        <v>30</v>
+      </c>
+      <c r="Q62" s="62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B63" s="4">
+        <v>9</v>
+      </c>
+      <c r="C63" s="4">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
+        <v>45</v>
+      </c>
+      <c r="I63" s="60"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L63" s="51">
+        <v>9</v>
+      </c>
+      <c r="M63" s="4">
+        <v>4</v>
+      </c>
+      <c r="N63" s="4">
+        <v>0</v>
+      </c>
+      <c r="O63" s="4">
+        <v>1</v>
+      </c>
+      <c r="P63" s="4">
+        <v>45</v>
+      </c>
+      <c r="Q63" s="61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64" s="48">
+        <v>-8</v>
+      </c>
+      <c r="C64" s="48">
+        <v>-5</v>
+      </c>
+      <c r="D64" s="48">
+        <v>0</v>
+      </c>
+      <c r="E64" s="48">
+        <v>0</v>
+      </c>
+      <c r="F64" s="48">
+        <v>0</v>
+      </c>
+      <c r="I64" s="64"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="L64" s="71">
+        <v>-8</v>
+      </c>
+      <c r="M64" s="71">
+        <v>-5</v>
+      </c>
+      <c r="N64" s="71">
+        <v>0</v>
+      </c>
+      <c r="O64" s="71">
+        <v>0</v>
+      </c>
+      <c r="P64" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="69"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="I65" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="J65" s="57"/>
+      <c r="K65" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="L65" s="58">
+        <v>8</v>
+      </c>
+      <c r="M65" s="58">
+        <v>5</v>
+      </c>
+      <c r="N65" s="58">
+        <v>0</v>
+      </c>
+      <c r="O65" s="58">
+        <v>0</v>
+      </c>
+      <c r="P65" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="59"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q66" s="61"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I67" s="60"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L67" s="54">
+        <v>1</v>
+      </c>
+      <c r="M67" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="N67" s="54">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O67" s="54">
+        <v>0</v>
+      </c>
+      <c r="P67" s="54">
+        <v>5</v>
+      </c>
+      <c r="Q67" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I68" s="60"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L68" s="52">
+        <v>0</v>
+      </c>
+      <c r="M68" s="54">
+        <v>-0.5</v>
+      </c>
+      <c r="N68" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="O68" s="52">
+        <v>1</v>
+      </c>
+      <c r="P68" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I69" s="64"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="L69" s="67">
+        <v>0</v>
+      </c>
+      <c r="M69" s="67">
+        <v>-1</v>
+      </c>
+      <c r="N69" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="O69" s="67">
+        <v>0</v>
+      </c>
+      <c r="P69" s="67">
+        <v>40</v>
+      </c>
+      <c r="Q69" s="69"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I70" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="J70" s="57"/>
+      <c r="K70" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="L70" s="58">
+        <v>8</v>
+      </c>
+      <c r="M70" s="58">
+        <v>5</v>
+      </c>
+      <c r="N70" s="58">
+        <v>0</v>
+      </c>
+      <c r="O70" s="58">
+        <v>0</v>
+      </c>
+      <c r="P70" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="59"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I71" s="60"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q71" s="61"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I72" s="60"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L72" s="52">
+        <v>2</v>
+      </c>
+      <c r="M72" s="52">
+        <v>1</v>
+      </c>
+      <c r="N72" s="52">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O72" s="52">
+        <v>0</v>
+      </c>
+      <c r="P72" s="52">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I73" s="60"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L73" s="52">
+        <v>1</v>
+      </c>
+      <c r="M73" s="52">
+        <v>0</v>
+      </c>
+      <c r="N73" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="O73" s="52">
+        <v>1</v>
+      </c>
+      <c r="P73" s="52">
+        <v>5</v>
+      </c>
+      <c r="Q73" s="73" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I74" s="64"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="L74" s="67">
+        <v>2</v>
+      </c>
+      <c r="M74" s="67">
+        <v>0</v>
+      </c>
+      <c r="N74" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="O74" s="67">
+        <v>0</v>
+      </c>
+      <c r="P74" s="74">
+        <v>50</v>
+      </c>
+      <c r="Q74" s="69"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I76" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I77" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="K84" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="K85" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="N85" s="23"/>
+      <c r="O85" s="23"/>
+      <c r="P85" s="23"/>
+      <c r="Q85" s="23"/>
+    </row>
+    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="K86" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="L86" s="36"/>
+      <c r="M86" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="N86" s="41"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
+      <c r="Q87" s="41"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="41"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="41"/>
+      <c r="Q88" s="41"/>
+    </row>
+    <row r="91" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" s="76"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="94"/>
+      <c r="J93" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="K93" s="76"/>
+      <c r="L93" s="76"/>
+      <c r="M93" s="76"/>
+      <c r="N93" s="76"/>
+      <c r="O93" s="76"/>
+      <c r="P93" s="94"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="78"/>
+      <c r="J94" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="K94" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="L94" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="M94" s="45"/>
+      <c r="N94" s="45"/>
+      <c r="O94" s="45"/>
+      <c r="P94" s="78"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" s="79">
+        <v>0</v>
+      </c>
+      <c r="C95" s="79">
+        <v>10</v>
+      </c>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" s="45"/>
+      <c r="G95" s="78"/>
+      <c r="J95" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="K95" s="79">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L95" s="79">
+        <v>0</v>
+      </c>
+      <c r="M95" s="45"/>
+      <c r="N95" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="O95" s="45"/>
+      <c r="P95" s="78"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" s="79">
+        <v>8</v>
+      </c>
+      <c r="C96" s="79">
+        <v>5</v>
+      </c>
+      <c r="D96" s="45"/>
+      <c r="E96" s="79">
+        <f>SUMPRODUCT(B95:C95,B96:C96)</f>
+        <v>50</v>
+      </c>
+      <c r="F96" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="G96" s="87"/>
+      <c r="J96" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="K96" s="79">
+        <v>30</v>
+      </c>
+      <c r="L96" s="79">
+        <v>45</v>
+      </c>
+      <c r="M96" s="45"/>
+      <c r="N96" s="79">
+        <f>SUMPRODUCT(K95:L95,K96:L96)</f>
+        <v>80</v>
+      </c>
+      <c r="O96" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="P96" s="87"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="B97" s="49"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="88"/>
+      <c r="J97" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="K97" s="49"/>
+      <c r="L97" s="49"/>
+      <c r="M97" s="49"/>
+      <c r="N97" s="49"/>
+      <c r="O97" s="49"/>
+      <c r="P97" s="88"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="F98" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="G98" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="J98" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="K98" s="45"/>
+      <c r="L98" s="45"/>
+      <c r="M98" s="45"/>
+      <c r="N98" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="O98" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="P98" s="78" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="B99" s="79">
+        <v>6</v>
+      </c>
+      <c r="C99" s="79">
+        <v>3</v>
+      </c>
+      <c r="D99" s="45"/>
+      <c r="E99" s="79">
+        <f>SUMPRODUCT(B95:C95,B99:C99)</f>
+        <v>30</v>
+      </c>
+      <c r="F99" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="G99" s="81">
+        <v>30</v>
+      </c>
+      <c r="J99" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="K99" s="79">
+        <v>6</v>
+      </c>
+      <c r="L99" s="79">
+        <v>9</v>
+      </c>
+      <c r="M99" s="45"/>
+      <c r="N99" s="79">
+        <f>SUMPRODUCT(K95:L95,K99:L99)</f>
+        <v>16</v>
+      </c>
+      <c r="O99" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="P99" s="81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="B100" s="83">
+        <v>9</v>
+      </c>
+      <c r="C100" s="83">
+        <v>4</v>
+      </c>
+      <c r="D100" s="84"/>
+      <c r="E100" s="83">
+        <f>SUMPRODUCT(B95:C95,B100:C100)</f>
+        <v>40</v>
+      </c>
+      <c r="F100" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="G100" s="85">
+        <v>45</v>
+      </c>
+      <c r="J100" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="K100" s="83">
+        <v>3</v>
+      </c>
+      <c r="L100" s="83">
+        <v>4</v>
+      </c>
+      <c r="M100" s="84"/>
+      <c r="N100" s="83">
+        <f>SUMPRODUCT(K95:L95,K100:L100)</f>
+        <v>8</v>
+      </c>
+      <c r="O100" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="P100" s="85">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="68">
+    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="J97:P97"/>
+    <mergeCell ref="J93:P93"/>
+    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="K86:L88"/>
+    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A91:XFD91"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="M86:Q88"/>
+    <mergeCell ref="M85:Q85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="I70:J74"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A65:F66"/>
+    <mergeCell ref="I60:J64"/>
+    <mergeCell ref="I65:J69"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A50:XFD50"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63958069-EECE-43A6-AC7F-879E0FC41059}">
-  <dimension ref="B2:P30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="4" width="9.140625" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H8" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="3">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3">
-        <v>25</v>
-      </c>
-      <c r="F16" s="3">
-        <v>50</v>
-      </c>
-      <c r="G16" s="3">
-        <v>25</v>
-      </c>
-      <c r="H16" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="23">
-        <v>25</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="4">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="23">
-        <v>50</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4">
-        <v>3</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="23">
-        <v>75</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="4">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4">
-        <v>6</v>
-      </c>
-      <c r="G19" s="4">
-        <v>5</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="23">
-        <v>25</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="4">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4">
-        <v>10</v>
-      </c>
-      <c r="G20" s="4">
-        <v>3</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="6">
-        <f>SUMPRODUCT(D17:H20, E26:I29)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
-      <c r="E25" s="1">
-        <v>50</v>
-      </c>
-      <c r="F25" s="1">
-        <v>25</v>
-      </c>
-      <c r="G25" s="1">
-        <v>50</v>
-      </c>
-      <c r="H25" s="1">
-        <v>25</v>
-      </c>
-      <c r="I25" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="1">
-        <v>25</v>
-      </c>
-      <c r="E26" s="8">
-        <v>25</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f>SUM(E26:I26)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="1">
-        <v>50</v>
-      </c>
-      <c r="E27" s="7">
-        <v>25</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>25</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <f>SUM(E27:I27)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="1">
-        <v>75</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>25</v>
-      </c>
-      <c r="G28" s="2">
-        <v>25</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>25</v>
-      </c>
-      <c r="J28">
-        <f>SUM(E28:I28)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="1">
-        <v>25</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>25</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <f>SUM(E29:I29)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <f>SUM(E26:E29)</f>
-        <v>50</v>
-      </c>
-      <c r="F30">
-        <f>SUM(F26:F29)</f>
-        <v>25</v>
-      </c>
-      <c r="G30">
-        <f>SUM(G26:G29)</f>
-        <v>50</v>
-      </c>
-      <c r="H30">
-        <f>SUM(H26:H29)</f>
-        <v>25</v>
-      </c>
-      <c r="I30">
-        <f>SUM(I26:I29)</f>
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398347E2-9EF4-4DA8-841F-1A77D9061981}">
-  <dimension ref="A1:G73"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="17">
-        <v>500</v>
-      </c>
-      <c r="E16" s="17">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18">
-        <v>25</v>
-      </c>
-      <c r="E21" s="18">
-        <v>25</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="18">
-        <v>0</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="18">
-        <v>0</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="18">
-        <v>0</v>
-      </c>
-      <c r="E24" s="18">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="18">
-        <v>0</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18">
-        <v>25</v>
-      </c>
-      <c r="E26" s="18">
-        <v>25</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="18">
-        <v>0</v>
-      </c>
-      <c r="E27" s="18">
-        <v>0</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="18">
-        <v>25</v>
-      </c>
-      <c r="E28" s="18">
-        <v>25</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="18">
-        <v>0</v>
-      </c>
-      <c r="E29" s="18">
-        <v>0</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="18">
-        <v>0</v>
-      </c>
-      <c r="E30" s="18">
-        <v>0</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="18">
-        <v>0</v>
-      </c>
-      <c r="E31" s="18">
-        <v>0</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="18">
-        <v>25</v>
-      </c>
-      <c r="E32" s="18">
-        <v>25</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="18">
-        <v>25</v>
-      </c>
-      <c r="E33" s="18">
-        <v>25</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="18">
-        <v>0</v>
-      </c>
-      <c r="E34" s="18">
-        <v>0</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="18">
-        <v>25</v>
-      </c>
-      <c r="E35" s="18">
-        <v>25</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="18">
-        <v>0</v>
-      </c>
-      <c r="E36" s="18">
-        <v>0</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="18">
-        <v>0</v>
-      </c>
-      <c r="E37" s="18">
-        <v>0</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="18">
-        <v>0</v>
-      </c>
-      <c r="E38" s="18">
-        <v>0</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="18">
-        <v>25</v>
-      </c>
-      <c r="E39" s="18">
-        <v>25</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="17">
-        <v>0</v>
-      </c>
-      <c r="E40" s="17">
-        <v>0</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="18">
-        <v>25</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="18">
-        <v>50</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="18">
-        <v>75</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="18">
-        <v>25</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="18">
-        <v>50</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="18">
-        <v>25</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="18">
-        <v>50</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="18">
-        <v>25</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="18">
-        <v>25</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="18">
-        <v>25</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G54" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="18">
-        <v>0</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="18">
-        <v>0</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="18">
-        <v>0</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="18">
-        <v>0</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G58" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="18">
-        <v>25</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G59" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="18">
-        <v>0</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G60" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="18">
-        <v>25</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G61" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="18">
-        <v>0</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="18">
-        <v>0</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="18">
-        <v>0</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G64" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="18">
-        <v>25</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="18">
-        <v>25</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G66" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="18">
-        <v>0</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G67" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="18">
-        <v>25</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G68" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="18">
-        <v>0</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G69" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="18">
-        <v>0</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G70" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="18">
-        <v>0</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G71" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="18">
-        <v>25</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="17">
-        <v>0</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G73" s="17">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2006C012-BF87-4A40-8FD4-BC38D161C770}">
   <dimension ref="A1:H41"/>
   <sheetViews>
@@ -3692,7 +4456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61277F24-231C-41FD-92EB-87F9641072AD}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -4235,11 +4999,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AF8B72-9E3D-4EF9-894B-2B5E7B0942E6}">
   <dimension ref="C3:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4251,17 +5015,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
@@ -4554,7 +5318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F6D586-F954-4441-9CE6-14BED9846DE3}">
   <dimension ref="A1:G75"/>
   <sheetViews>
@@ -5580,7 +6344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866B6F44-9688-40A8-8C89-B48E8E79DD02}">
   <dimension ref="A1:H41"/>
   <sheetViews>
@@ -6329,7 +7093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1ABAD52-8C85-4B87-A4C9-9955F05E3083}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -6862,4 +7626,2630 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A8C77B-33FB-4AA6-9D35-5BF728CA43E4}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="90">
+        <v>0</v>
+      </c>
+      <c r="E16" s="90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="91">
+        <v>0</v>
+      </c>
+      <c r="E21" s="91">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="90">
+        <v>0</v>
+      </c>
+      <c r="E22" s="90">
+        <v>10</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="91">
+        <v>40</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28" s="90">
+        <v>30</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082AEE57-29CB-4C96-9C20-865033053D1E}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F9" s="16">
+        <v>8</v>
+      </c>
+      <c r="G9" s="16">
+        <v>2</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="14">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="16">
+        <v>40</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>45</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1E+30</v>
+      </c>
+      <c r="H15" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="14">
+        <v>30</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="F16" s="14">
+        <v>30</v>
+      </c>
+      <c r="G16" s="14">
+        <v>3.75</v>
+      </c>
+      <c r="H16" s="14">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2193349-4A3D-497C-A183-3B7839444A68}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="92"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="F11" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="92" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="91">
+        <v>0</v>
+      </c>
+      <c r="F13" s="91">
+        <v>0</v>
+      </c>
+      <c r="G13" s="91">
+        <v>50</v>
+      </c>
+      <c r="I13" s="91">
+        <v>0</v>
+      </c>
+      <c r="J13" s="91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="90">
+        <v>10</v>
+      </c>
+      <c r="F14" s="90">
+        <v>0</v>
+      </c>
+      <c r="G14" s="90">
+        <v>0</v>
+      </c>
+      <c r="I14" s="90">
+        <v>10</v>
+      </c>
+      <c r="J14" s="90">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C4C9AD-1249-469F-8170-C43817F3F31C}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="90">
+        <v>0</v>
+      </c>
+      <c r="E16" s="90">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" s="91">
+        <v>0</v>
+      </c>
+      <c r="E21" s="91">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="90">
+        <v>0</v>
+      </c>
+      <c r="E22" s="90">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="91">
+        <v>8</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28" s="90">
+        <v>16</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="90">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F117D5-29E9-431D-AE5F-50A11EE1F59D}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>30</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3.75</v>
+      </c>
+      <c r="H9" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14">
+        <v>45</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="16">
+        <v>8</v>
+      </c>
+      <c r="E15" s="16">
+        <v>10</v>
+      </c>
+      <c r="F15" s="16">
+        <v>8</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1E+30</v>
+      </c>
+      <c r="H15" s="16">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="14">
+        <v>16</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14">
+        <v>11</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1E+30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37902FC3-E782-4BF6-AEDD-B3E234D75EB1}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="92"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="90">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="F11" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="92" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="91">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F13" s="91">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G13" s="91">
+        <v>80</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="90">
+        <v>0</v>
+      </c>
+      <c r="F14" s="90">
+        <v>0</v>
+      </c>
+      <c r="G14" s="90">
+        <v>80</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63958069-EECE-43A6-AC7F-879E0FC41059}">
+  <dimension ref="B2:P30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="9.140625" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3">
+        <v>25</v>
+      </c>
+      <c r="H16" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="21">
+        <v>25</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="21">
+        <v>50</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="21">
+        <v>75</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="4">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4">
+        <v>6</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="21">
+        <v>25</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="4">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6">
+        <f>SUMPRODUCT(D17:H20, E26:I29)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <v>50</v>
+      </c>
+      <c r="F25" s="1">
+        <v>25</v>
+      </c>
+      <c r="G25" s="1">
+        <v>50</v>
+      </c>
+      <c r="H25" s="1">
+        <v>25</v>
+      </c>
+      <c r="I25" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>25</v>
+      </c>
+      <c r="E26" s="8">
+        <v>25</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>SUM(E26:I26)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <v>50</v>
+      </c>
+      <c r="E27" s="7">
+        <v>25</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>25</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>SUM(E27:I27)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>75</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>25</v>
+      </c>
+      <c r="G28" s="2">
+        <v>25</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <f>SUM(E28:I28)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <v>25</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>25</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>SUM(E29:I29)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f>SUM(E26:E29)</f>
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <f>SUM(F26:F29)</f>
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <f>SUM(G26:G29)</f>
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <f>SUM(H26:H29)</f>
+        <v>25</v>
+      </c>
+      <c r="I30">
+        <f>SUM(I26:I29)</f>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398347E2-9EF4-4DA8-841F-1A77D9061981}">
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="17">
+        <v>500</v>
+      </c>
+      <c r="E16" s="17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="18">
+        <v>25</v>
+      </c>
+      <c r="E21" s="18">
+        <v>25</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="18">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="18">
+        <v>0</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="18">
+        <v>25</v>
+      </c>
+      <c r="E26" s="18">
+        <v>25</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="18">
+        <v>0</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="18">
+        <v>25</v>
+      </c>
+      <c r="E28" s="18">
+        <v>25</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="18">
+        <v>0</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="18">
+        <v>0</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="18">
+        <v>25</v>
+      </c>
+      <c r="E32" s="18">
+        <v>25</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="18">
+        <v>25</v>
+      </c>
+      <c r="E33" s="18">
+        <v>25</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="18">
+        <v>25</v>
+      </c>
+      <c r="E35" s="18">
+        <v>25</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="18">
+        <v>0</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="18">
+        <v>0</v>
+      </c>
+      <c r="E37" s="18">
+        <v>0</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="18">
+        <v>0</v>
+      </c>
+      <c r="E38" s="18">
+        <v>0</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="18">
+        <v>25</v>
+      </c>
+      <c r="E39" s="18">
+        <v>25</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="17">
+        <v>0</v>
+      </c>
+      <c r="E40" s="17">
+        <v>0</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="18">
+        <v>25</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="18">
+        <v>50</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="18">
+        <v>75</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="18">
+        <v>25</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="18">
+        <v>50</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="18">
+        <v>25</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="18">
+        <v>50</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="18">
+        <v>25</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="18">
+        <v>25</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="18">
+        <v>25</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="18">
+        <v>0</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="18">
+        <v>0</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="18">
+        <v>0</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="18">
+        <v>0</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="18">
+        <v>25</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="18">
+        <v>0</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="18">
+        <v>25</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="18">
+        <v>0</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="18">
+        <v>0</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="18">
+        <v>0</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="18">
+        <v>25</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="18">
+        <v>25</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="18">
+        <v>0</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="18">
+        <v>25</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G68" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="18">
+        <v>0</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="18">
+        <v>0</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="18">
+        <v>0</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="18">
+        <v>25</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="17">
+        <v>0</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" s="17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LR2/LR2.xlsx
+++ b/LR2/LR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Desktop\Уник\МОптим\LR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF272A9-F126-4AD2-ABDB-67EC54DCA301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D7C366-774A-4725-AB54-F29E5275B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="699" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,15 +986,9 @@
     <t>Оптимальный план двойственной задачи:</t>
   </si>
   <si>
-    <t>y1 = 5/3</t>
-  </si>
-  <si>
     <t>y2 = 0</t>
   </si>
   <si>
-    <t>Z(y) = 30 * (5/3) + 45*0</t>
-  </si>
-  <si>
     <t>Ресурс 1 наиболее дефицитный</t>
   </si>
   <si>
@@ -1143,18 +1137,32 @@
   </si>
   <si>
     <t>коэф.</t>
+  </si>
+  <si>
+    <t>y1 = 2</t>
+  </si>
+  <si>
+    <t>Z(y) = 30 * 2 + 45*0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1656,28 +1664,206 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1705,184 +1891,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2357,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85:Q85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,7 +2378,7 @@
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" customWidth="1"/>
@@ -2379,8 +2387,8 @@
     <col min="17" max="17" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2391,106 +2399,106 @@
       <c r="E3" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="J3" s="41" t="s">
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="J3" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="36">
+      <c r="K3" s="69"/>
+      <c r="L3" s="65">
         <v>8</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="65">
         <v>5</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="81" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="4">
         <v>6</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="65">
         <v>30</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="4">
         <v>9</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="65">
         <v>45</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="J5" s="36" t="s">
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="J5" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36" t="s">
+      <c r="K5" s="65"/>
+      <c r="L5" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="N5" s="41" t="s">
+      <c r="N5" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="65" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="4">
         <v>8</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="36"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="65"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="4">
         <v>6</v>
       </c>
@@ -2505,15 +2513,15 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="J8" s="36" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="J8" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="4">
         <v>9</v>
       </c>
@@ -2528,117 +2536,117 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+      <c r="A9" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="J10" s="23" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="J10" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="J12" s="33" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="J12" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>213</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="36" t="s">
+      <c r="K13" s="68"/>
+      <c r="L13" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="M13" s="36"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-    </row>
-    <row r="50" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+    </row>
+    <row r="50" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="80" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="G52" s="35" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="G52" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="N52" s="46" t="s">
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="N52" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="O52" s="46"/>
+      <c r="O52" s="77"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
       <c r="G53" s="4" t="s">
         <v>224</v>
       </c>
@@ -2657,20 +2665,20 @@
       <c r="L53" s="4">
         <v>0</v>
       </c>
-      <c r="N53" s="47" t="s">
+      <c r="N53" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
+      <c r="O53" s="75"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="75"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
       <c r="G54" s="4" t="s">
         <v>225</v>
       </c>
@@ -2689,12 +2697,12 @@
       <c r="L54" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="N54" s="47" t="s">
+      <c r="N54" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
+      <c r="O54" s="75"/>
+      <c r="P54" s="75"/>
+      <c r="Q54" s="75"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G55" s="4" t="s">
@@ -2715,12 +2723,12 @@
       <c r="L55" s="4">
         <v>30</v>
       </c>
-      <c r="N55" s="47" t="s">
+      <c r="N55" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
+      <c r="O55" s="75"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="75"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G56" s="4" t="s">
@@ -2741,32 +2749,32 @@
       <c r="L56" s="4">
         <v>45</v>
       </c>
-      <c r="N56" s="47" t="s">
+      <c r="N56" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="47"/>
+      <c r="O56" s="75"/>
+      <c r="P56" s="75"/>
+      <c r="Q56" s="75"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N57" s="47" t="s">
+      <c r="N57" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="47"/>
+      <c r="O57" s="75"/>
+      <c r="P57" s="75"/>
+      <c r="Q57" s="75"/>
     </row>
     <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="Q59" s="70" t="s">
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="Q59" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="R59" s="39"/>
+      <c r="R59" s="21"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -2787,29 +2795,29 @@
       <c r="F60" s="4">
         <v>0</v>
       </c>
-      <c r="I60" s="56" t="s">
+      <c r="I60" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="J60" s="57"/>
-      <c r="K60" s="58" t="s">
+      <c r="J60" s="71"/>
+      <c r="K60" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="L60" s="58">
+      <c r="L60" s="30">
         <v>8</v>
       </c>
-      <c r="M60" s="58">
+      <c r="M60" s="30">
         <v>5</v>
       </c>
-      <c r="N60" s="58">
-        <v>0</v>
-      </c>
-      <c r="O60" s="58">
-        <v>0</v>
-      </c>
-      <c r="P60" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="59"/>
+      <c r="N60" s="30">
+        <v>0</v>
+      </c>
+      <c r="O60" s="30">
+        <v>0</v>
+      </c>
+      <c r="P60" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="31"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -2830,8 +2838,8 @@
       <c r="F61" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="I61" s="60"/>
-      <c r="J61" s="36"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="65"/>
       <c r="K61" s="4" t="s">
         <v>225</v>
       </c>
@@ -2850,7 +2858,7 @@
       <c r="P61" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="Q61" s="61"/>
+      <c r="Q61" s="32"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -2871,27 +2879,27 @@
       <c r="F62" s="4">
         <v>30</v>
       </c>
-      <c r="I62" s="60"/>
-      <c r="J62" s="36"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="65"/>
       <c r="K62" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="L62" s="50">
+      <c r="L62" s="24">
         <v>6</v>
       </c>
-      <c r="M62" s="51">
+      <c r="M62" s="25">
         <v>3</v>
       </c>
-      <c r="N62" s="51">
+      <c r="N62" s="25">
         <v>1</v>
       </c>
-      <c r="O62" s="51">
-        <v>0</v>
-      </c>
-      <c r="P62" s="51">
+      <c r="O62" s="25">
+        <v>0</v>
+      </c>
+      <c r="P62" s="25">
         <v>30</v>
       </c>
-      <c r="Q62" s="62">
+      <c r="Q62" s="33">
         <v>5</v>
       </c>
     </row>
@@ -2914,12 +2922,12 @@
       <c r="F63" s="4">
         <v>45</v>
       </c>
-      <c r="I63" s="60"/>
-      <c r="J63" s="36"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="65"/>
       <c r="K63" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="L63" s="51">
+      <c r="L63" s="25">
         <v>9</v>
       </c>
       <c r="M63" s="4">
@@ -2934,7 +2942,7 @@
       <c r="P63" s="4">
         <v>45</v>
       </c>
-      <c r="Q63" s="61">
+      <c r="Q63" s="32">
         <v>5</v>
       </c>
     </row>
@@ -2942,85 +2950,85 @@
       <c r="A64" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B64" s="48">
+      <c r="B64" s="23">
         <v>-8</v>
       </c>
-      <c r="C64" s="48">
+      <c r="C64" s="23">
         <v>-5</v>
       </c>
-      <c r="D64" s="48">
-        <v>0</v>
-      </c>
-      <c r="E64" s="48">
-        <v>0</v>
-      </c>
-      <c r="F64" s="48">
-        <v>0</v>
-      </c>
-      <c r="I64" s="64"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="66" t="s">
+      <c r="D64" s="23">
+        <v>0</v>
+      </c>
+      <c r="E64" s="23">
+        <v>0</v>
+      </c>
+      <c r="F64" s="23">
+        <v>0</v>
+      </c>
+      <c r="I64" s="73"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="L64" s="71">
+      <c r="L64" s="40">
         <v>-8</v>
       </c>
-      <c r="M64" s="71">
+      <c r="M64" s="40">
         <v>-5</v>
       </c>
-      <c r="N64" s="71">
-        <v>0</v>
-      </c>
-      <c r="O64" s="71">
-        <v>0</v>
-      </c>
-      <c r="P64" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="69"/>
+      <c r="N64" s="40">
+        <v>0</v>
+      </c>
+      <c r="O64" s="40">
+        <v>0</v>
+      </c>
+      <c r="P64" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="38"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="I65" s="56" t="s">
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
+      <c r="I65" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="J65" s="57"/>
-      <c r="K65" s="58" t="s">
+      <c r="J65" s="71"/>
+      <c r="K65" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="L65" s="58">
+      <c r="L65" s="30">
         <v>8</v>
       </c>
-      <c r="M65" s="58">
+      <c r="M65" s="30">
         <v>5</v>
       </c>
-      <c r="N65" s="58">
-        <v>0</v>
-      </c>
-      <c r="O65" s="58">
-        <v>0</v>
-      </c>
-      <c r="P65" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="59"/>
+      <c r="N65" s="30">
+        <v>0</v>
+      </c>
+      <c r="O65" s="30">
+        <v>0</v>
+      </c>
+      <c r="P65" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="31"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="36"/>
+      <c r="A66" s="76"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="65"/>
       <c r="K66" s="4" t="s">
         <v>225</v>
       </c>
@@ -3039,109 +3047,109 @@
       <c r="P66" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="Q66" s="61"/>
+      <c r="Q66" s="32"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I67" s="60"/>
-      <c r="J67" s="36"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="65"/>
       <c r="K67" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="L67" s="54">
+      <c r="L67" s="28">
         <v>1</v>
       </c>
-      <c r="M67" s="55">
+      <c r="M67" s="29">
         <v>0.5</v>
       </c>
-      <c r="N67" s="54">
+      <c r="N67" s="28">
         <v>0.16666666666666666</v>
       </c>
-      <c r="O67" s="54">
-        <v>0</v>
-      </c>
-      <c r="P67" s="54">
+      <c r="O67" s="28">
+        <v>0</v>
+      </c>
+      <c r="P67" s="28">
         <v>5</v>
       </c>
-      <c r="Q67" s="62">
+      <c r="Q67" s="33">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I68" s="60"/>
-      <c r="J68" s="36"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="65"/>
       <c r="K68" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="L68" s="52">
-        <v>0</v>
-      </c>
-      <c r="M68" s="54">
+      <c r="L68" s="26">
+        <v>0</v>
+      </c>
+      <c r="M68" s="28">
         <v>-0.5</v>
       </c>
-      <c r="N68" s="53" t="s">
+      <c r="N68" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="O68" s="52">
+      <c r="O68" s="26">
         <v>1</v>
       </c>
-      <c r="P68" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="63" t="s">
+      <c r="P68" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="34" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I69" s="64"/>
-      <c r="J69" s="65"/>
-      <c r="K69" s="66" t="s">
+      <c r="I69" s="73"/>
+      <c r="J69" s="74"/>
+      <c r="K69" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="L69" s="67">
-        <v>0</v>
-      </c>
-      <c r="M69" s="67">
+      <c r="L69" s="36">
+        <v>0</v>
+      </c>
+      <c r="M69" s="36">
         <v>-1</v>
       </c>
-      <c r="N69" s="68" t="s">
+      <c r="N69" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="O69" s="67">
-        <v>0</v>
-      </c>
-      <c r="P69" s="67">
+      <c r="O69" s="36">
+        <v>0</v>
+      </c>
+      <c r="P69" s="36">
         <v>40</v>
       </c>
-      <c r="Q69" s="69"/>
+      <c r="Q69" s="38"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I70" s="56" t="s">
+      <c r="I70" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="J70" s="57"/>
-      <c r="K70" s="58" t="s">
+      <c r="J70" s="71"/>
+      <c r="K70" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="L70" s="58">
+      <c r="L70" s="30">
         <v>8</v>
       </c>
-      <c r="M70" s="58">
+      <c r="M70" s="30">
         <v>5</v>
       </c>
-      <c r="N70" s="58">
-        <v>0</v>
-      </c>
-      <c r="O70" s="58">
-        <v>0</v>
-      </c>
-      <c r="P70" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="59"/>
+      <c r="N70" s="30">
+        <v>0</v>
+      </c>
+      <c r="O70" s="30">
+        <v>0</v>
+      </c>
+      <c r="P70" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="31"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I71" s="60"/>
-      <c r="J71" s="36"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="65"/>
       <c r="K71" s="4" t="s">
         <v>225</v>
       </c>
@@ -3160,474 +3168,520 @@
       <c r="P71" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="Q71" s="61"/>
+      <c r="Q71" s="32"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I72" s="60"/>
-      <c r="J72" s="36"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="65"/>
       <c r="K72" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="L72" s="52">
+      <c r="L72" s="26">
         <v>2</v>
       </c>
-      <c r="M72" s="52">
+      <c r="M72" s="26">
         <v>1</v>
       </c>
-      <c r="N72" s="52">
+      <c r="N72" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O72" s="52">
-        <v>0</v>
-      </c>
-      <c r="P72" s="52">
+      <c r="O72" s="26">
+        <v>0</v>
+      </c>
+      <c r="P72" s="26">
         <v>10</v>
       </c>
-      <c r="Q72" s="72">
+      <c r="Q72" s="41">
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I73" s="60"/>
-      <c r="J73" s="36"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="65"/>
       <c r="K73" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="L73" s="52">
+      <c r="L73" s="26">
         <v>1</v>
       </c>
-      <c r="M73" s="52">
-        <v>0</v>
-      </c>
-      <c r="N73" s="53" t="s">
+      <c r="M73" s="26">
+        <v>0</v>
+      </c>
+      <c r="N73" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="O73" s="52">
+      <c r="O73" s="26">
         <v>1</v>
       </c>
-      <c r="P73" s="52">
+      <c r="P73" s="26">
         <v>5</v>
       </c>
-      <c r="Q73" s="73" t="s">
+      <c r="Q73" s="42" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I74" s="64"/>
-      <c r="J74" s="65"/>
-      <c r="K74" s="66" t="s">
+      <c r="I74" s="73"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="L74" s="67">
+      <c r="L74" s="36">
         <v>2</v>
       </c>
-      <c r="M74" s="67">
-        <v>0</v>
-      </c>
-      <c r="N74" s="68" t="s">
+      <c r="M74" s="36">
+        <v>0</v>
+      </c>
+      <c r="N74" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="O74" s="67">
-        <v>0</v>
-      </c>
-      <c r="P74" s="74">
+      <c r="O74" s="36">
+        <v>0</v>
+      </c>
+      <c r="P74" s="43">
         <v>50</v>
       </c>
-      <c r="Q74" s="69"/>
+      <c r="Q74" s="38"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I76" s="23" t="s">
+      <c r="I76" s="68" t="s">
         <v>247</v>
       </c>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="68"/>
+      <c r="L76" s="68"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I77" s="23" t="s">
+      <c r="I77" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
+      <c r="J77" s="68"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="68"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="68"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="68"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="K84" s="35" t="s">
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="K84" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="L84" s="66"/>
+      <c r="M84" s="66"/>
+      <c r="N84" s="66"/>
+      <c r="O84" s="66"/>
+      <c r="P84" s="66"/>
+      <c r="Q84" s="66"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="K85" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="L85" s="68"/>
+      <c r="M85" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
+      <c r="N85" s="68"/>
+      <c r="O85" s="68"/>
+      <c r="P85" s="68"/>
+      <c r="Q85" s="68"/>
+    </row>
+    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="K85" s="23" t="s">
+      <c r="B86" s="68"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="68"/>
+      <c r="K86" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="L85" s="23"/>
-      <c r="M85" s="23" t="s">
+      <c r="L86" s="65"/>
+      <c r="M86" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="N85" s="23"/>
-      <c r="O85" s="23"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="23"/>
-    </row>
-    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="K86" s="36" t="s">
+      <c r="N86" s="69"/>
+      <c r="O86" s="69"/>
+      <c r="P86" s="69"/>
+      <c r="Q86" s="69"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="B87" s="68"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
+      <c r="K87" s="65"/>
+      <c r="L87" s="65"/>
+      <c r="M87" s="69"/>
+      <c r="N87" s="69"/>
+      <c r="O87" s="69"/>
+      <c r="P87" s="69"/>
+      <c r="Q87" s="69"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K88" s="65"/>
+      <c r="L88" s="65"/>
+      <c r="M88" s="69"/>
+      <c r="N88" s="69"/>
+      <c r="O88" s="69"/>
+      <c r="P88" s="69"/>
+      <c r="Q88" s="69"/>
+    </row>
+    <row r="91" spans="1:17" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="67" t="s">
         <v>258</v>
-      </c>
-      <c r="L86" s="36"/>
-      <c r="M86" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="N86" s="41"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
-      <c r="Q86" s="41"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
-      <c r="Q87" s="41"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="41"/>
-      <c r="N88" s="41"/>
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
-      <c r="Q88" s="41"/>
-    </row>
-    <row r="91" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="38" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="75" t="s">
+      <c r="A93" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="B93" s="76"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="76"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="76"/>
-      <c r="G93" s="94"/>
-      <c r="J93" s="75" t="s">
+      <c r="B93" s="63"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="64"/>
+      <c r="J93" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="K93" s="76"/>
-      <c r="L93" s="76"/>
-      <c r="M93" s="76"/>
-      <c r="N93" s="76"/>
-      <c r="O93" s="76"/>
-      <c r="P93" s="94"/>
+      <c r="K93" s="63"/>
+      <c r="L93" s="63"/>
+      <c r="M93" s="63"/>
+      <c r="N93" s="63"/>
+      <c r="O93" s="63"/>
+      <c r="P93" s="64"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="77" t="s">
+      <c r="A94" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C94" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B94" s="45" t="s">
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="45"/>
+      <c r="J94" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="K94" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L94" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M94" s="22"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="45"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="C94" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="78"/>
-      <c r="J94" s="77" t="s">
-        <v>261</v>
-      </c>
-      <c r="K94" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="L94" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="M94" s="45"/>
-      <c r="N94" s="45"/>
-      <c r="O94" s="45"/>
-      <c r="P94" s="78"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="77" t="s">
-        <v>264</v>
-      </c>
-      <c r="B95" s="79">
-        <v>0</v>
-      </c>
-      <c r="C95" s="79">
+      <c r="B95" s="46">
+        <v>0</v>
+      </c>
+      <c r="C95" s="46">
         <v>10</v>
       </c>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45" t="s">
+      <c r="D95" s="22"/>
+      <c r="E95" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="F95" s="45"/>
-      <c r="G95" s="78"/>
-      <c r="J95" s="77" t="s">
-        <v>264</v>
-      </c>
-      <c r="K95" s="79">
+      <c r="F95" s="22"/>
+      <c r="G95" s="45"/>
+      <c r="J95" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="K95" s="46">
         <v>2.6666666666666665</v>
       </c>
-      <c r="L95" s="79">
-        <v>0</v>
-      </c>
-      <c r="M95" s="45"/>
-      <c r="N95" s="45" t="s">
+      <c r="L95" s="46">
+        <v>0</v>
+      </c>
+      <c r="M95" s="22"/>
+      <c r="N95" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="O95" s="45"/>
-      <c r="P95" s="78"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="45"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="77" t="s">
-        <v>303</v>
-      </c>
-      <c r="B96" s="79">
+      <c r="A96" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="B96" s="46">
         <v>8</v>
       </c>
-      <c r="C96" s="79">
+      <c r="C96" s="46">
         <v>5</v>
       </c>
-      <c r="D96" s="45"/>
-      <c r="E96" s="79">
+      <c r="D96" s="22"/>
+      <c r="E96" s="46">
         <f>SUMPRODUCT(B95:C95,B96:C96)</f>
         <v>50</v>
       </c>
-      <c r="F96" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="G96" s="87"/>
-      <c r="J96" s="77" t="s">
-        <v>303</v>
-      </c>
-      <c r="K96" s="79">
+      <c r="F96" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="G96" s="58"/>
+      <c r="J96" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="K96" s="46">
         <v>30</v>
       </c>
-      <c r="L96" s="79">
+      <c r="L96" s="46">
         <v>45</v>
       </c>
-      <c r="M96" s="45"/>
-      <c r="N96" s="79">
+      <c r="M96" s="22"/>
+      <c r="N96" s="46">
         <f>SUMPRODUCT(K95:L95,K96:L96)</f>
         <v>80</v>
       </c>
-      <c r="O96" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="P96" s="87"/>
+      <c r="O96" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="P96" s="58"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="80" t="s">
+      <c r="A97" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B97" s="60"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="61"/>
+      <c r="J97" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="K97" s="60"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="60"/>
+      <c r="N97" s="60"/>
+      <c r="O97" s="60"/>
+      <c r="P97" s="61"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="F98" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B97" s="49"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="88"/>
-      <c r="J97" s="80" t="s">
+      <c r="G98" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="J98" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="O98" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="K97" s="49"/>
-      <c r="L97" s="49"/>
-      <c r="M97" s="49"/>
-      <c r="N97" s="49"/>
-      <c r="O97" s="49"/>
-      <c r="P97" s="88"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="77" t="s">
-        <v>266</v>
-      </c>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="F98" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="G98" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="J98" s="77" t="s">
-        <v>266</v>
-      </c>
-      <c r="K98" s="45"/>
-      <c r="L98" s="45"/>
-      <c r="M98" s="45"/>
-      <c r="N98" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="O98" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="P98" s="78" t="s">
-        <v>301</v>
+      <c r="P98" s="45" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="B99" s="79">
+      <c r="A99" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B99" s="46">
         <v>6</v>
       </c>
-      <c r="C99" s="79">
+      <c r="C99" s="46">
         <v>3</v>
       </c>
-      <c r="D99" s="45"/>
-      <c r="E99" s="79">
+      <c r="D99" s="22"/>
+      <c r="E99" s="46">
         <f>SUMPRODUCT(B95:C95,B99:C99)</f>
         <v>30</v>
       </c>
-      <c r="F99" s="45" t="s">
+      <c r="F99" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="G99" s="81">
+      <c r="G99" s="47">
         <v>30</v>
       </c>
-      <c r="J99" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="K99" s="79">
+      <c r="J99" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="K99" s="46">
         <v>6</v>
       </c>
-      <c r="L99" s="79">
+      <c r="L99" s="46">
         <v>9</v>
       </c>
-      <c r="M99" s="45"/>
-      <c r="N99" s="79">
+      <c r="M99" s="22"/>
+      <c r="N99" s="46">
         <f>SUMPRODUCT(K95:L95,K99:L99)</f>
         <v>16</v>
       </c>
-      <c r="O99" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="P99" s="81">
+      <c r="O99" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="P99" s="47">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="B100" s="83">
+      <c r="A100" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="B100" s="49">
         <v>9</v>
       </c>
-      <c r="C100" s="83">
+      <c r="C100" s="49">
         <v>4</v>
       </c>
-      <c r="D100" s="84"/>
-      <c r="E100" s="83">
+      <c r="D100" s="50"/>
+      <c r="E100" s="49">
         <f>SUMPRODUCT(B95:C95,B100:C100)</f>
         <v>40</v>
       </c>
-      <c r="F100" s="84" t="s">
+      <c r="F100" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="G100" s="85">
+      <c r="G100" s="51">
         <v>45</v>
       </c>
-      <c r="J100" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="K100" s="83">
+      <c r="J100" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="K100" s="49">
         <v>3</v>
       </c>
-      <c r="L100" s="83">
+      <c r="L100" s="49">
         <v>4</v>
       </c>
-      <c r="M100" s="84"/>
-      <c r="N100" s="83">
+      <c r="M100" s="50"/>
+      <c r="N100" s="49">
         <f>SUMPRODUCT(K95:L95,K100:L100)</f>
         <v>8</v>
       </c>
-      <c r="O100" s="84" t="s">
-        <v>269</v>
-      </c>
-      <c r="P100" s="85">
+      <c r="O100" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="P100" s="51">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="O96:P96"/>
-    <mergeCell ref="J97:P97"/>
-    <mergeCell ref="J93:P93"/>
-    <mergeCell ref="A93:G93"/>
-    <mergeCell ref="K86:L88"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="A50:XFD50"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A65:F66"/>
+    <mergeCell ref="I60:J64"/>
+    <mergeCell ref="I65:J69"/>
+    <mergeCell ref="I70:J74"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
     <mergeCell ref="K84:Q84"/>
     <mergeCell ref="A91:XFD91"/>
     <mergeCell ref="F96:G96"/>
@@ -3640,57 +3694,11 @@
     <mergeCell ref="M86:Q88"/>
     <mergeCell ref="M85:Q85"/>
     <mergeCell ref="K85:L85"/>
-    <mergeCell ref="I70:J74"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A65:F66"/>
-    <mergeCell ref="I60:J64"/>
-    <mergeCell ref="I65:J69"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A50:XFD50"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="J97:P97"/>
+    <mergeCell ref="J93:P93"/>
+    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="K86:L88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5015,38 +5023,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="89"/>
+      <c r="E5" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="25"/>
-      <c r="K5" s="31" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="87"/>
+      <c r="K5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="32"/>
+      <c r="L5" s="94"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="3">
         <v>50</v>
       </c>
@@ -5062,16 +5070,16 @@
       <c r="I6" s="3">
         <v>25</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="79"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="24">
-        <v>25</v>
-      </c>
-      <c r="D7" s="25"/>
+      <c r="C7" s="86">
+        <v>25</v>
+      </c>
+      <c r="D7" s="87"/>
       <c r="E7" s="4">
         <v>3</v>
       </c>
@@ -5087,16 +5095,16 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="34"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="24">
+      <c r="C8" s="86">
         <v>50</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="4">
         <v>2</v>
       </c>
@@ -5114,10 +5122,10 @@
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="24">
+      <c r="C9" s="86">
         <v>75</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="4">
         <v>9</v>
       </c>
@@ -5135,10 +5143,10 @@
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="24">
-        <v>25</v>
-      </c>
-      <c r="D10" s="25"/>
+      <c r="C10" s="86">
+        <v>25</v>
+      </c>
+      <c r="D10" s="87"/>
       <c r="E10" s="4">
         <v>7</v>
       </c>
@@ -7652,12 +7660,12 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7685,7 +7693,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7705,34 +7713,34 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="52" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D16" s="90">
-        <v>0</v>
-      </c>
-      <c r="E16" s="90">
+        <v>275</v>
+      </c>
+      <c r="D16" s="53">
+        <v>0</v>
+      </c>
+      <c r="E16" s="53">
         <v>50</v>
       </c>
     </row>
@@ -7742,33 +7750,33 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="89" t="s">
+      <c r="E20" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="89" t="s">
+      <c r="F20" s="52" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="91">
-        <v>0</v>
-      </c>
-      <c r="E21" s="91">
+        <v>277</v>
+      </c>
+      <c r="D21" s="54">
+        <v>0</v>
+      </c>
+      <c r="E21" s="54">
         <v>0</v>
       </c>
       <c r="F21" s="16" t="s">
@@ -7777,15 +7785,15 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D22" s="90">
-        <v>0</v>
-      </c>
-      <c r="E22" s="90">
+        <v>279</v>
+      </c>
+      <c r="D22" s="53">
+        <v>0</v>
+      </c>
+      <c r="E22" s="53">
         <v>10</v>
       </c>
       <c r="F22" s="14" t="s">
@@ -7798,37 +7806,37 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="89" t="s">
+      <c r="F26" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="89" t="s">
+      <c r="G26" s="52" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="54">
+        <v>40</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>282</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D27" s="91">
-        <v>40</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>284</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>82</v>
@@ -7839,16 +7847,16 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" s="53">
+        <v>30</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>285</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D28" s="90">
-        <v>30</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>287</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>64</v>
@@ -7887,12 +7895,12 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7901,53 +7909,53 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="55" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="56" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D9" s="16">
         <v>0</v>
@@ -7967,10 +7975,10 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D10" s="14">
         <v>10</v>
@@ -7994,53 +8002,53 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="92" t="s">
+      <c r="F13" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="92" t="s">
+      <c r="H13" s="55" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="F14" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="G14" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="93" t="s">
+      <c r="H14" s="56" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D15" s="16">
         <v>40</v>
@@ -8060,10 +8068,10 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D16" s="14">
         <v>30</v>
@@ -8115,130 +8123,130 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="92"/>
-      <c r="C6" s="92" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="92"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="56" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D8" s="90">
+        <v>275</v>
+      </c>
+      <c r="D8" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="92"/>
-      <c r="C11" s="92" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="F11" s="92" t="s">
+      <c r="D11" s="55"/>
+      <c r="F11" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="92" t="s">
+      <c r="I11" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="92" t="s">
+      <c r="J11" s="55" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="93" t="s">
+      <c r="G12" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="I12" s="93" t="s">
+      <c r="I12" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="93" t="s">
+      <c r="J12" s="56" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" s="91">
-        <v>0</v>
-      </c>
-      <c r="F13" s="91">
-        <v>0</v>
-      </c>
-      <c r="G13" s="91">
+        <v>277</v>
+      </c>
+      <c r="D13" s="54">
+        <v>0</v>
+      </c>
+      <c r="F13" s="54">
+        <v>0</v>
+      </c>
+      <c r="G13" s="54">
         <v>50</v>
       </c>
-      <c r="I13" s="91">
-        <v>0</v>
-      </c>
-      <c r="J13" s="91">
+      <c r="I13" s="54">
+        <v>0</v>
+      </c>
+      <c r="J13" s="54">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="90">
+        <v>279</v>
+      </c>
+      <c r="D14" s="53">
         <v>10</v>
       </c>
-      <c r="F14" s="90">
-        <v>0</v>
-      </c>
-      <c r="G14" s="90">
-        <v>0</v>
-      </c>
-      <c r="I14" s="90">
+      <c r="F14" s="53">
+        <v>0</v>
+      </c>
+      <c r="G14" s="53">
+        <v>0</v>
+      </c>
+      <c r="I14" s="53">
         <v>10</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J14" s="53">
         <v>50</v>
       </c>
     </row>
@@ -8271,12 +8279,12 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8298,13 +8306,13 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8328,30 +8336,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="52" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D16" s="90">
-        <v>0</v>
-      </c>
-      <c r="E16" s="90">
+        <v>275</v>
+      </c>
+      <c r="D16" s="53">
+        <v>0</v>
+      </c>
+      <c r="E16" s="53">
         <v>80</v>
       </c>
     </row>
@@ -8361,33 +8369,33 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="89" t="s">
+      <c r="E20" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="89" t="s">
+      <c r="F20" s="52" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="D21" s="91">
-        <v>0</v>
-      </c>
-      <c r="E21" s="91">
+        <v>291</v>
+      </c>
+      <c r="D21" s="54">
+        <v>0</v>
+      </c>
+      <c r="E21" s="54">
         <v>2.6666666666666665</v>
       </c>
       <c r="F21" s="16" t="s">
@@ -8396,15 +8404,15 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="D22" s="90">
-        <v>0</v>
-      </c>
-      <c r="E22" s="90">
+        <v>293</v>
+      </c>
+      <c r="D22" s="53">
+        <v>0</v>
+      </c>
+      <c r="E22" s="53">
         <v>0</v>
       </c>
       <c r="F22" s="14" t="s">
@@ -8417,62 +8425,62 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="89" t="s">
+      <c r="F26" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="89" t="s">
+      <c r="G26" s="52" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D27" s="91">
+        <v>281</v>
+      </c>
+      <c r="D27" s="54">
         <v>8</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="91">
+      <c r="G27" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D28" s="90">
+        <v>284</v>
+      </c>
+      <c r="D28" s="53">
         <v>16</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="90">
+      <c r="G28" s="53">
         <v>11</v>
       </c>
     </row>
@@ -8506,12 +8514,12 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8520,53 +8528,53 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="55" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="56" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D9" s="16">
         <v>2.6666666666666665</v>
@@ -8586,10 +8594,10 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D10" s="14">
         <v>0</v>
@@ -8613,53 +8621,53 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="92" t="s">
+      <c r="F13" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="92" t="s">
+      <c r="H13" s="55" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="F14" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="G14" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="93" t="s">
+      <c r="H14" s="56" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D15" s="16">
         <v>8</v>
@@ -8679,10 +8687,10 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D16" s="14">
         <v>16</v>
@@ -8734,131 +8742,131 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="92"/>
-      <c r="C6" s="92" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="92"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="56" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D8" s="90">
+        <v>275</v>
+      </c>
+      <c r="D8" s="53">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="92"/>
-      <c r="C11" s="92" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="F11" s="92" t="s">
+      <c r="D11" s="55"/>
+      <c r="F11" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="92" t="s">
+      <c r="I11" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="92" t="s">
+      <c r="J11" s="55" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="93" t="s">
+      <c r="G12" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="I12" s="93" t="s">
+      <c r="I12" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="93" t="s">
+      <c r="J12" s="56" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="D13" s="91">
+        <v>291</v>
+      </c>
+      <c r="D13" s="54">
         <v>2.6666666666666665</v>
       </c>
-      <c r="F13" s="91">
+      <c r="F13" s="54">
         <v>2.6666666666666665</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="54">
         <v>80</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="D14" s="90">
-        <v>0</v>
-      </c>
-      <c r="F14" s="90">
-        <v>0</v>
-      </c>
-      <c r="G14" s="90">
+        <v>293</v>
+      </c>
+      <c r="D14" s="53">
+        <v>0</v>
+      </c>
+      <c r="F14" s="53">
+        <v>0</v>
+      </c>
+      <c r="G14" s="53">
         <v>80</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -8883,101 +8891,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="85"/>
+      <c r="D15" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="3">
         <v>50</v>
       </c>
@@ -8995,10 +9003,10 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="21">
-        <v>25</v>
-      </c>
-      <c r="C17" s="21"/>
+      <c r="B17" s="85">
+        <v>25</v>
+      </c>
+      <c r="C17" s="85"/>
       <c r="D17" s="4">
         <v>3</v>
       </c>
@@ -9016,10 +9024,10 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="21">
+      <c r="B18" s="85">
         <v>50</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="4">
         <v>2</v>
       </c>
@@ -9037,10 +9045,10 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="21">
+      <c r="B19" s="85">
         <v>75</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="4">
         <v>9</v>
       </c>
@@ -9058,10 +9066,10 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="21">
-        <v>25</v>
-      </c>
-      <c r="C20" s="21"/>
+      <c r="B20" s="85">
+        <v>25</v>
+      </c>
+      <c r="C20" s="85"/>
       <c r="D20" s="4">
         <v>7</v>
       </c>
@@ -9225,6 +9233,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="H2:P2"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="H4:N4"/>
@@ -9232,14 +9246,8 @@
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="H7:N7"/>
     <mergeCell ref="H8:N8"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
